--- a/stat/mv/mv_stats_workload.xlsx
+++ b/stat/mv/mv_stats_workload.xlsx
@@ -17,7 +17,7 @@
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="!!" sheetId="9" r:id="rId9"/>
     <sheet name="+ʹ!" sheetId="10" r:id="rId10"/>
-    <sheet name="¿¡" sheetId="11" r:id="rId11"/>
+    <sheet name="¿!" sheetId="11" r:id="rId11"/>
     <sheet name="5!" sheetId="12" r:id="rId12"/>
     <sheet name="6!" sheetId="13" r:id="rId13"/>
     <sheet name="7!" sheetId="14" r:id="rId14"/>
@@ -5416,6 +5416,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5717,6 +5727,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5966,6 +5986,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7035,6 +7065,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8104,6 +8144,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9173,6 +9223,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10242,6 +10302,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10727,6 +10797,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11028,6 +11108,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11277,6 +11367,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12346,6 +12446,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13415,6 +13525,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14484,6 +14604,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15553,6 +15683,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15986,6 +16126,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:CW101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>